--- a/data/html5_complete.xlsx
+++ b/data/html5_complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\graduation-project--master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22F24C0-0139-4077-A941-A1569CCFA175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4041222F-79E1-4BD8-9DC4-11398E2F1352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D149FCC7-2006-47E0-B465-8BD4EC32FBC2}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>which attribute is used to create a link that opens in a new window tab?</t>
   </si>
   <si>
-    <t>target=”_blank”</t>
-  </si>
-  <si>
     <t>Which HTML element is used for short quote?</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>How to create a checkbox in HTML Form?</t>
   </si>
   <si>
-    <t>&lt;input type=”checkbox”&gt;</t>
-  </si>
-  <si>
     <t>Which HTML tag is used to convert the plain text into italic format?</t>
   </si>
   <si>
@@ -145,6 +139,12 @@
   </si>
   <si>
     <t>difficult</t>
+  </si>
+  <si>
+    <t>target="_blank"</t>
+  </si>
+  <si>
+    <t>&lt;input type="checkbox"&gt;</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,13 +552,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -647,24 +647,24 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -675,38 +675,38 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -717,38 +717,38 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>

--- a/data/html5_complete.xlsx
+++ b/data/html5_complete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\graduation-project--master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4041222F-79E1-4BD8-9DC4-11398E2F1352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DCDC320-E029-4629-BB8B-2D7CB499FC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D149FCC7-2006-47E0-B465-8BD4EC32FBC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7CD61148-FE5D-416C-B3A8-0F27C2FDE8B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,24 +49,33 @@
     <t>status</t>
   </si>
   <si>
+    <t>In which part of the HTML metadata is contained?</t>
+  </si>
+  <si>
+    <t>&lt;head&gt;</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>Which element is used to get highlighted text in HTML5?</t>
+  </si>
+  <si>
+    <t>&lt;highlight&gt;</t>
+  </si>
+  <si>
     <t>medium</t>
   </si>
   <si>
-    <t>In which part of the HTML metadata is contained?</t>
-  </si>
-  <si>
-    <t>Which element is used to get highlighted text in HTML5?</t>
-  </si>
-  <si>
     <t> Whichelement in HTML5 defines video or movie content?</t>
   </si>
   <si>
-    <t>&lt;highlight&gt;</t>
-  </si>
-  <si>
     <t>&lt;video&gt;</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>Which HTML tag is used for making character appearance bold?</t>
   </si>
   <si>
@@ -87,6 +97,9 @@
     <t>which attribute is used to create a link that opens in a new window tab?</t>
   </si>
   <si>
+    <t>target="_blank"</t>
+  </si>
+  <si>
     <t>Which HTML element is used for short quote?</t>
   </si>
   <si>
@@ -120,6 +133,9 @@
     <t>How to create a checkbox in HTML Form?</t>
   </si>
   <si>
+    <t>&lt;input type="checkbox"&gt;</t>
+  </si>
+  <si>
     <t>Which HTML tag is used to convert the plain text into italic format?</t>
   </si>
   <si>
@@ -130,21 +146,6 @@
   </si>
   <si>
     <t>&lt;strong&gt;</t>
-  </si>
-  <si>
-    <t>&lt;head&gt;</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>target="_blank"</t>
-  </si>
-  <si>
-    <t>&lt;input type="checkbox"&gt;</t>
   </si>
 </sst>
 </file>
@@ -160,6 +161,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Georgia"/>
@@ -168,12 +175,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="4"/>
       <name val="Georgia"/>
       <family val="1"/>
     </font>
@@ -200,11 +201,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,265 +519,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B492C82-F2A3-4888-8E5C-8D9CFB19A6C1}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2C42DB-20B2-415A-9C00-2412DE8A7278}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="80.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>